--- a/Aluminum/3 MONTH/20226/Aluminum_Best_by_wma.xlsx
+++ b/Aluminum/3 MONTH/20226/Aluminum_Best_by_wma.xlsx
@@ -594,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2867.566666666667</v>
+        <v>2863.995238095238</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -602,10 +602,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2868.63253968254</v>
+        <v>2864.899546485261</v>
       </c>
       <c r="C3">
-        <v>1.065873015873422</v>
+        <v>0.9043083900223792</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -613,10 +613,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2870.240083144368</v>
+        <v>2866.347145016737</v>
       </c>
       <c r="C4">
-        <v>1.6075434618283</v>
+        <v>1.447598531476615</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -624,10 +624,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2872.378666270741</v>
+        <v>2868.328326520328</v>
       </c>
       <c r="C5">
-        <v>2.138583126372851</v>
+        <v>1.98118150359096</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -635,10 +635,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2874.743590251318</v>
+        <v>2870.539396047992</v>
       </c>
       <c r="C6">
-        <v>2.364923980576805</v>
+        <v>2.211069527663767</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -646,10 +646,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2876.770037152566</v>
+        <v>2872.416623023432</v>
       </c>
       <c r="C7">
-        <v>2.026446901247709</v>
+        <v>1.877226975439953</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -657,10 +657,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>2878.228795233689</v>
+        <v>2873.731969729636</v>
       </c>
       <c r="C8">
-        <v>1.458758081123051</v>
+        <v>1.315346706204309</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -668,10 +668,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2879.318053907525</v>
+        <v>2874.684889345845</v>
       </c>
       <c r="C9">
-        <v>1.089258673835957</v>
+        <v>0.9529196162088738</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -679,10 +679,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>2879.77186676347</v>
+        <v>2875.010791926789</v>
       </c>
       <c r="C10">
-        <v>0.4538128559456709</v>
+        <v>0.3259025809438754</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -690,10 +690,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>2879.715004396613</v>
+        <v>2874.835900042366</v>
       </c>
       <c r="C11">
-        <v>-0.05686236685733093</v>
+        <v>-0.1748918844227774</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -701,10 +701,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>2879.339527200706</v>
+        <v>2874.353824207395</v>
       </c>
       <c r="C12">
-        <v>-0.3754771959074787</v>
+        <v>-0.4820758349710559</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -712,10 +712,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>2878.858218822346</v>
+        <v>2873.778998768893</v>
       </c>
       <c r="C13">
-        <v>-0.4813083783592447</v>
+        <v>-0.5748254385025575</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -723,10 +723,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>2878.324692849855</v>
+        <v>2873.166790792401</v>
       </c>
       <c r="C14">
-        <v>-0.5335259724915886</v>
+        <v>-0.6122079764918453</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -734,10 +734,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2877.602934790353</v>
+        <v>2872.383043966868</v>
       </c>
       <c r="C15">
-        <v>-0.7217580595020081</v>
+        <v>-0.7837468255329441</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -745,10 +745,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2877.191844092565</v>
+        <v>2871.928622249416</v>
       </c>
       <c r="C16">
-        <v>-0.4110906977875857</v>
+        <v>-0.4544217174520782</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -756,10 +756,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>2877.205397448368</v>
+        <v>2871.919574444745</v>
       </c>
       <c r="C17">
-        <v>0.01355335580319661</v>
+        <v>-0.009047804670899495</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -767,10 +767,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>2877.36218519952</v>
+        <v>2872.076671505109</v>
       </c>
       <c r="C18">
-        <v>0.1567877511520237</v>
+        <v>0.1570970603638671</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -778,10 +778,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>2877.442450843886</v>
+        <v>2872.182446502436</v>
       </c>
       <c r="C19">
-        <v>0.08026564436522676</v>
+        <v>0.105774997327444</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -789,10 +789,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2877.523874239145</v>
+        <v>2872.316977825676</v>
       </c>
       <c r="C20">
-        <v>0.08142339525920761</v>
+        <v>0.1345313232395711</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -800,10 +800,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>2877.506183429935</v>
+        <v>2872.382500482068</v>
       </c>
       <c r="C21">
-        <v>-0.01769080920985289</v>
+        <v>0.06552265639265897</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -811,10 +811,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>2877.550979809185</v>
+        <v>2872.543230163711</v>
       </c>
       <c r="C22">
-        <v>0.04479637924987401</v>
+        <v>0.1607296816423514</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -822,10 +822,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2877.671441636792</v>
+        <v>2872.636493622261</v>
       </c>
       <c r="C23">
-        <v>0.1204618276069596</v>
+        <v>0.09326345855060936</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -833,10 +833,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>2877.755831671112</v>
+        <v>2872.697934590824</v>
       </c>
       <c r="C24">
-        <v>0.08439003431976744</v>
+        <v>0.06144096856269243</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -844,10 +844,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>2877.805216461299</v>
+        <v>2872.728384474788</v>
       </c>
       <c r="C25">
-        <v>0.04938479018710495</v>
+        <v>0.03044988396368353</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -855,10 +855,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>2877.823515286138</v>
+        <v>2872.731492492585</v>
       </c>
       <c r="C26">
-        <v>0.01829882483934853</v>
+        <v>0.003108017797330831</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -866,10 +866,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>2877.817716141008</v>
+        <v>2872.713943855152</v>
       </c>
       <c r="C27">
-        <v>-0.005799145130367833</v>
+        <v>-0.01754863743281021</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -877,10 +877,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>2877.796698386651</v>
+        <v>2872.684285364418</v>
       </c>
       <c r="C28">
-        <v>-0.02101775435676245</v>
+        <v>-0.02965849073461868</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -888,10 +888,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>2877.768689993839</v>
+        <v>2872.650386442034</v>
       </c>
       <c r="C29">
-        <v>-0.02800839281189837</v>
+        <v>-0.03389892238374159</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -899,10 +899,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>2877.740071739078</v>
+        <v>2872.61824802402</v>
       </c>
       <c r="C30">
-        <v>-0.0286182547606586</v>
+        <v>-0.03213841801425588</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -910,10 +910,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>2877.716105859643</v>
+        <v>2872.592736913355</v>
       </c>
       <c r="C31">
-        <v>-0.02396587943485429</v>
+        <v>-0.02551111066486556</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -921,10 +921,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>2877.699532729903</v>
+        <v>2872.576189239307</v>
       </c>
       <c r="C32">
-        <v>-0.01657312974020897</v>
+        <v>-0.01654767404761515</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -932,10 +932,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>2877.690899771316</v>
+        <v>2872.568747325487</v>
       </c>
       <c r="C33">
-        <v>-0.008632958587440953</v>
+        <v>-0.007441913819548063</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -943,10 +943,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>2877.689254123677</v>
+        <v>2872.569061586391</v>
       </c>
       <c r="C34">
-        <v>-0.001645647639179515</v>
+        <v>0.0003142609034512134</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -954,10 +954,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>2877.693010409838</v>
+        <v>2872.575168879015</v>
       </c>
       <c r="C35">
-        <v>0.003756286161205935</v>
+        <v>0.006107292624164984</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -965,10 +965,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>2877.700150336235</v>
+        <v>2872.584704148109</v>
       </c>
       <c r="C36">
-        <v>0.007139926397030649</v>
+        <v>0.009535269094158139</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -976,10 +976,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>2877.7075413241</v>
+        <v>2872.594232657535</v>
       </c>
       <c r="C37">
-        <v>0.007390987865619536</v>
+        <v>0.009528509426218079</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -987,10 +987,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>2877.71321570965</v>
+        <v>2872.601544444531</v>
       </c>
       <c r="C38">
-        <v>0.005674385549809813</v>
+        <v>0.007311786995614966</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -998,10 +998,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>2877.717039351559</v>
+        <v>2872.606339934038</v>
       </c>
       <c r="C39">
-        <v>0.00382364190863882</v>
+        <v>0.0047954895071598</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1009,10 +1009,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>2877.719555575981</v>
+        <v>2872.609092741881</v>
       </c>
       <c r="C40">
-        <v>0.002516224421924562</v>
+        <v>0.002752807842625771</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1020,10 +1020,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>2877.721003876503</v>
+        <v>2872.610089181749</v>
       </c>
       <c r="C41">
-        <v>0.0014483005220427</v>
+        <v>0.000996439867776644</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1031,10 +1031,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>2877.721658294518</v>
+        <v>2872.609789497242</v>
       </c>
       <c r="C42">
-        <v>0.0006544180146192957</v>
+        <v>-0.0002996845068992116</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1042,10 +1042,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>2877.72135208355</v>
+        <v>2872.60837751564</v>
       </c>
       <c r="C43">
-        <v>-0.0003062109672100632</v>
+        <v>-0.001411981601904699</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1053,10 +1053,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>2877.720203954941</v>
+        <v>2872.606514110393</v>
       </c>
       <c r="C44">
-        <v>-0.001148128609202104</v>
+        <v>-0.001863405247149785</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1064,10 +1064,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>2877.718708811957</v>
+        <v>2872.604607124201</v>
       </c>
       <c r="C45">
-        <v>-0.001495142983912956</v>
+        <v>-0.001906986191897886</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1075,10 +1075,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>2877.717240930193</v>
+        <v>2872.602953855898</v>
       </c>
       <c r="C46">
-        <v>-0.001467881763801415</v>
+        <v>-0.001653268302561628</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1086,10 +1086,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>2877.716045191354</v>
+        <v>2872.601732549425</v>
       </c>
       <c r="C47">
-        <v>-0.001195738839669502</v>
+        <v>-0.00122130647287122</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1097,10 +1097,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>2877.715241640988</v>
+        <v>2872.601007016799</v>
       </c>
       <c r="C48">
-        <v>-0.0008035503660721588</v>
+        <v>-0.0007255326268023055</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1108,10 +1108,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>2877.714845709393</v>
+        <v>2872.600746725376</v>
       </c>
       <c r="C49">
-        <v>-0.0003959315945394337</v>
+        <v>-0.0002602914223643893</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1119,10 +1119,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>2877.714799959293</v>
+        <v>2872.600858207854</v>
       </c>
       <c r="C50">
-        <v>-4.57501000710181E-05</v>
+        <v>0.0001114824781325296</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1130,10 +1130,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>2877.715006253396</v>
+        <v>2872.601216687315</v>
       </c>
       <c r="C51">
-        <v>0.0002062941025542386</v>
+        <v>0.0003584794603739283</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1141,10 +1141,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>2877.715352536364</v>
+        <v>2872.601692116324</v>
       </c>
       <c r="C52">
-        <v>0.0003462829686213809</v>
+        <v>0.0004754290093842428</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1152,10 +1152,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>2877.715737034883</v>
+        <v>2872.602172444412</v>
       </c>
       <c r="C53">
-        <v>0.0003844985185423866</v>
+        <v>0.0004803280876330973</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1163,10 +1163,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>2877.716082819896</v>
+        <v>2872.602577075759</v>
       </c>
       <c r="C54">
-        <v>0.0003457850134509499</v>
+        <v>0.0004046313474646013</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1174,10 +1174,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>2877.716343264132</v>
+        <v>2872.602861076193</v>
       </c>
       <c r="C55">
-        <v>0.0002604442356641812</v>
+        <v>0.000284000433566689</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1185,10 +1185,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>2877.716500756885</v>
+        <v>2872.603012526718</v>
       </c>
       <c r="C56">
-        <v>0.0001574927528054104</v>
+        <v>0.0001514505256636767</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1196,10 +1196,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>2877.716562140116</v>
+        <v>2872.603046533497</v>
       </c>
       <c r="C57">
-        <v>6.138323169579962E-05</v>
+        <v>3.400677906029159E-05</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1207,10 +1207,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>2877.716551510226</v>
+        <v>2872.602996596263</v>
       </c>
       <c r="C58">
-        <v>-1.062989076672238E-05</v>
+        <v>-4.993723496227176E-05</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1218,10 +1218,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>2877.716496911697</v>
+        <v>2872.602899932263</v>
       </c>
       <c r="C59">
-        <v>-5.459852854983183E-05</v>
+        <v>-9.666400001151487E-05</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1229,10 +1229,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>2877.716421228543</v>
+        <v>2872.602787147159</v>
       </c>
       <c r="C60">
-        <v>-7.56831536818936E-05</v>
+        <v>-0.000112785103283386</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1240,10 +1240,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>2877.716340920518</v>
+        <v>2872.602680001578</v>
       </c>
       <c r="C61">
-        <v>-8.030802518987912E-05</v>
+        <v>-0.0001071455808414612</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1251,10 +1251,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>2877.716267889573</v>
+        <v>2872.602592678298</v>
       </c>
       <c r="C62">
-        <v>-7.30309452592337E-05</v>
+        <v>-8.732328069527284E-05</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1262,10 +1262,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>2877.716210107852</v>
+        <v>2872.602532320325</v>
       </c>
       <c r="C63">
-        <v>-5.778172044301755E-05</v>
+        <v>-6.035797287040623E-05</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1273,10 +1273,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>2877.716172491705</v>
+        <v>2872.60250048454</v>
       </c>
       <c r="C64">
-        <v>-3.761614698305493E-05</v>
+        <v>-3.18357847390871E-05</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1284,10 +1284,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>2877.716155778667</v>
+        <v>2872.602493451038</v>
       </c>
       <c r="C65">
-        <v>-1.671303834882565E-05</v>
+        <v>-7.033501788100693E-06</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1295,10 +1295,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>2877.716156671354</v>
+        <v>2872.602504860185</v>
       </c>
       <c r="C66">
-        <v>8.926872396841645E-07</v>
+        <v>1.140914628194878E-05</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1306,10 +1306,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>2877.716169806361</v>
+        <v>2872.602527421025</v>
       </c>
       <c r="C67">
-        <v>1.313500661126454E-05</v>
+        <v>2.256084053442464E-05</v>
       </c>
     </row>
   </sheetData>
